--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lachlan Hammond Ferguson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>26/12/2016</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +963,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -908,7 +970,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -948,7 +1010,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -1004,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1453,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/01/2019</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1604,7 +1658,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1656,7 +1710,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1696,7 +1750,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -1800,7 +1851,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1840,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1900,7 +1950,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1940,7 +1990,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -1948,7 +1997,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1988,7 +2037,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2036,7 +2084,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -2044,7 +2091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2084,7 +2131,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -2092,7 +2138,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2144,7 +2190,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2184,7 +2230,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>09/07/2019</t>
@@ -2192,7 +2237,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2232,7 +2277,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>14/07/2019</t>
@@ -2240,7 +2284,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2336,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2344,7 +2388,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2384,7 +2428,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -2392,7 +2435,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2432,7 +2475,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -2440,7 +2482,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2492,7 +2534,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2532,7 +2574,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -2540,7 +2581,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2592,7 +2633,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2644,7 +2685,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2684,7 +2725,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -2692,7 +2732,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2732,7 +2772,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -2740,7 +2779,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2780,7 +2819,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -2788,7 +2826,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2840,7 +2878,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2892,7 +2930,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2932,7 +2970,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>13/01/2023</t>
@@ -2940,7 +2977,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2992,7 +3029,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3044,7 +3081,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3096,7 +3133,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3135,7 +3172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3157,7 +3194,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3194,7 +3231,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3966</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -3231,7 +3268,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3268,7 +3305,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3305,7 +3342,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3342,7 +3379,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3379,7 +3416,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3416,7 +3453,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -3453,7 +3490,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3490,7 +3527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4101</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3527,7 +3564,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4102</t>
+          <t>4102</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3564,7 +3601,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3601,7 +3638,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3638,7 +3675,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3675,7 +3712,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3712,7 +3749,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3749,7 +3786,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3786,7 +3823,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3823,7 +3860,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3860,7 +3897,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4227</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3897,7 +3934,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4231</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3934,7 +3971,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3971,7 +4008,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4008,7 +4045,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4242</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4045,7 +4082,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4245</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4082,7 +4119,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4250</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4119,7 +4156,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4251</t>
+          <t>4251</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4156,7 +4193,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4193,7 +4230,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4230,7 +4267,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4311</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4267,7 +4304,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4315</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4304,7 +4341,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4341,7 +4378,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4333</t>
+          <t>4333</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4378,7 +4415,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4337</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4415,7 +4452,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4452,7 +4489,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4353</t>
+          <t>4353</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4489,7 +4526,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4526,7 +4563,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4423</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4563,7 +4600,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4605</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4600,7 +4637,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4614</t>
+          <t>4614</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4637,7 +4674,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4674,7 +4711,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4711,7 +4748,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4748,7 +4785,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4647</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4785,7 +4822,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4822,7 +4859,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4859,7 +4896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4896,7 +4933,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4933,7 +4970,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4970,7 +5007,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5007,7 +5044,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5044,7 +5081,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4692</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5081,7 +5118,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4695</t>
+          <t>4695</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5118,7 +5155,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4697</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -5146,6 +5183,473 @@
           <t>0/53</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5254,7 +5255,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5267,15 +5267,401 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5285,13 +5671,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5299,27 +5678,14 @@
           <t>4423</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5329,27 +5695,14 @@
           <t>4605</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.62%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5359,17 +5712,12 @@
           <t>4614</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5377,15 +5725,14 @@
           <t>4625</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -5395,25 +5742,12 @@
           <t>4636</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5423,13 +5757,6 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5439,13 +5766,6 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5453,27 +5773,14 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.65%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5483,13 +5790,14 @@
           <t>4669</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -5501,13 +5809,6 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -5515,23 +5816,14 @@
           <t>4676</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5543,13 +5835,6 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5557,13 +5842,14 @@
           <t>4688</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -5573,29 +5859,8 @@
           <t>4690</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.93%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5603,29 +5868,8 @@
           <t>4692</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.37%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5633,11 +5877,12 @@
           <t>4695</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5645,11 +5890,12 @@
           <t>4697</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2785,7 +2784,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5255,6 +5254,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5267,6 +5267,10 @@
           <t>4353</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5279,6 +5283,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5354,6 +5362,9 @@
       <c r="B7" t="n">
         <v>11</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5369,6 +5380,9 @@
       <c r="B8" t="n">
         <v>9</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5394,6 +5408,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5406,6 +5421,10 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5418,6 +5437,10 @@
           <t>4647</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5460,6 +5483,10 @@
           <t>4669</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5472,6 +5499,10 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5497,6 +5528,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5509,6 +5541,10 @@
           <t>4686</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5521,6 +5557,10 @@
           <t>4688</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5593,6 +5633,11 @@
           <t>4695</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5600,302 +5645,11 @@
           <t>4697</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>26/12/2016</t>
@@ -916,6 +916,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -963,6 +964,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -1010,6 +1012,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -1057,6 +1060,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -1104,6 +1108,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -1203,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1250,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1453,6 +1460,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/01/2019</t>
@@ -1547,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -1750,6 +1760,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -1797,6 +1808,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -1844,6 +1856,7 @@
           <t>27</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -1891,6 +1904,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -1990,6 +2004,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2037,6 +2052,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -2084,6 +2100,7 @@
           <t>32</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -2131,6 +2148,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -2230,6 +2248,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>09/07/2019</t>
@@ -2277,6 +2296,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>14/07/2019</t>
@@ -2428,6 +2448,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -2475,6 +2496,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -2574,6 +2596,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -2725,6 +2748,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -2772,6 +2796,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -2819,6 +2844,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -2970,6 +2996,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>13/01/2023</t>
@@ -5187,471 +5214,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4353</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4423</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.53%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.62%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4614</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>9</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.65%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.93%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4692</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.37%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4695</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_4609.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>26/12/2016</t>
@@ -916,7 +916,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -964,7 +963,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>23/12/2017</t>
@@ -1012,7 +1010,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>26/12/2017</t>
@@ -1060,7 +1057,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>06/01/2018</t>
@@ -1108,7 +1104,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -1208,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -1256,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>18/01/2018</t>
@@ -1460,7 +1453,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/11/2018</t>
@@ -1508,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/01/2019</t>
@@ -1556,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -1760,7 +1750,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>13/02/2019</t>
@@ -1808,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>16/02/2019</t>
@@ -1856,7 +1844,6 @@
           <t>27</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -1904,7 +1891,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>01/06/2019</t>
@@ -2004,7 +1990,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>08/06/2019</t>
@@ -2052,7 +2037,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>19/06/2019</t>
@@ -2100,7 +2084,6 @@
           <t>32</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>22/06/2019</t>
@@ -2148,7 +2131,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>26/06/2019</t>
@@ -2248,7 +2230,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>09/07/2019</t>
@@ -2296,7 +2277,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>14/07/2019</t>
@@ -2448,7 +2428,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>15/07/2022</t>
@@ -2496,7 +2475,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>31/07/2022</t>
@@ -2596,7 +2574,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -2748,7 +2725,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -2796,7 +2772,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -2844,7 +2819,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -2996,7 +2970,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>13/01/2023</t>
@@ -5214,4 +5187,1115 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3966</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3968</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3969</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3970</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3984</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3988</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3997</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4100</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4104</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4105</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.33%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4110</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4114</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4138</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4223</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.13%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4227</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4231</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4242</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4245</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>11</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.82%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4250</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4251</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4311</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4315</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4333</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4337</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>4353</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>4423</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>4605</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>4614</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>4647</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>4692</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>9</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>4695</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>4697</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>